--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E919E8-CF8D-2540-853F-8CDBDA6DE7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27900" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="458" windowWidth="27900" windowHeight="17483"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,22 +92,85 @@
 2. 了解如何透過終端機使用mariadb
 3. 學習Sql語法</t>
   </si>
+  <si>
+    <t>錢云帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1，將接下來的 工作分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四個部分，分別是：
+ 數據處理（包括處理遺漏值，標準化，篩選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性關係等）
+ 處理因子的獨立性，利用PCA
+ 回歸計算各變量係數以及var，並檢驗顯著性。
+ 對解釋力進行分析，並計算對VaR等指標的影響。
+2，找python中計算VaR的code，使用歷史模擬法或蒙地卡羅模擬法。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新分工，負責第四部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續完善code，並等待前面部分做出結果，將結果帶入code中，算出VaR，做出解釋力分析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -126,6 +188,13 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -154,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,9 +233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -193,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -210,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -285,23 +355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,23 +565,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.3125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -599,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -617,6 +655,23 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="93.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>43801</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5D7BD-C294-8D4E-BF01-2390D8BF6196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="458" windowWidth="27900" windowHeight="17483"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,11 +66,6 @@
   </si>
   <si>
     <t>收集保險業監管數據</t>
-  </si>
-  <si>
-    <t>1. 了解到台灣保險業採用RBC制度進行監管，將台灣保險業投資相關的法規整理成word文檔
-2. 初步學習Python、GitHub使用方法
-3. 學習基於APT的三種典型的宏觀經濟因素模型</t>
   </si>
   <si>
     <t>1. 繼續學習使用python，了解常用的經濟模型數據處理方法及其代碼
@@ -155,12 +151,44 @@
     <t>繼續完善code，並等待前面部分做出結果，將結果帶入code中，算出VaR，做出解釋力分析。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>尹雨佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責第三部分模型的回歸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/2(一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前兩部分數處處理完成後，用python跑出回歸數據，再進行調整、分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.了解到台灣保險業採用RBC制度進行監管，將台灣保險業投資相關的法規整理成word文檔
+2. 初步學習Python、GitHub使用方法
+3. 學習基於APT的三種典型的宏觀經濟因素模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在網路上學習python回歸分析的相關代碼，包括數據平穩性檢驗、固定效應與隨機效應模型的選擇、回歸係數顯著性檢驗等等
+2. 查找文獻資料，可以用不動產投資信託(REITs)報酬率表示不動產因子的影響
+3. 了解Basel的風險度量指標（包括Expected shortfall和VaR）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,10 +261,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -263,7 +290,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -280,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -355,6 +382,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,25 +626,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.3125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.8125" style="2"/>
+    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -603,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="76">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="79" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -631,47 +692,67 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="57">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="114">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="93.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>43801</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    <row r="8" spans="1:7" ht="76">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5D7BD-C294-8D4E-BF01-2390D8BF6196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A42911-E26D-F040-881F-009A528461ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,61 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1，將接下來的 工作分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四個部分，分別是：
- 數據處理（包括處理遺漏值，標準化，篩選</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>綫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>性關係等）
- 處理因子的獨立性，利用PCA
- 回歸計算各變量係數以及var，並檢驗顯著性。
- 對解釋力進行分析，並計算對VaR等指標的影響。
-2，找python中計算VaR的code，使用歷史模擬法或蒙地卡羅模擬法。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新分工，負責第四部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>繼續完善code，並等待前面部分做出結果，將結果帶入code中，算出VaR，做出解釋力分析。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,23 +127,46 @@
 2. 查找文獻資料，可以用不動產投資信託(REITs)報酬率表示不動產因子的影響
 3. 了解Basel的風險度量指標（包括Expected shortfall和VaR）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹凱翔</t>
+  </si>
+  <si>
+    <t>1.找python中計算VaR的code，使用歷史模擬法或蒙地卡羅模擬法。</t>
+  </si>
+  <si>
+    <t>將接下來的 工作分爲四個部分，分別是：
+1.數據處理（包括處理遺漏值，標準化，篩選綫性關係等）
+2. 處理因子的獨立性，利用PCA
+3. 回歸計算各變量係數以及var，並檢驗顯著性。
+4. 對解釋力進行分析，並計算對VaR等指標的影響。</t>
+  </si>
+  <si>
+    <t>負責第四部分</t>
+  </si>
+  <si>
+    <t>負責第二部分</t>
+  </si>
+  <si>
+    <t>1. 學習principle component analysis 跟independence component analysis
+2. 練習計算給定投組下的報酬率，將用來當作應變數使用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -217,15 +185,8 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,9 +228,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -307,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,15 +596,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
@@ -644,7 +613,7 @@
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -664,8 +633,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="76">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="76" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -681,8 +650,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -692,14 +661,14 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -718,40 +687,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="114">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="76">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A42911-E26D-F040-881F-009A528461ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69490FE6-A3D1-654E-83E7-C9B6C1260CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,22 +151,34 @@
     <t>1. 學習principle component analysis 跟independence component analysis
 2. 練習計算給定投組下的報酬率，將用來當作應變數使用</t>
   </si>
+  <si>
+    <t>12/10(一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已經大致了解整個回歸過程需要的分析方法，暫時完成自己這部分的coding，整理之後放在temp.py中並作了註釋，方便以後查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續完善coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -232,7 +244,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -276,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
@@ -613,7 +625,7 @@
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="76">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -650,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="79" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -667,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -687,17 +699,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="95">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="38">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -711,7 +723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -731,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="76">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -746,6 +758,23 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69490FE6-A3D1-654E-83E7-C9B6C1260CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="458" windowWidth="27900" windowHeight="15938"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,12 +162,52 @@
     <t>繼續完善coding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/15(日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢云帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VaR和ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>完成影片制作和word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +235,13 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -244,7 +290,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -271,7 +317,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -288,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -363,23 +409,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,23 +444,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,25 +619,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.6875" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="76">
+    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -662,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79" customHeight="1">
+    <row r="3" spans="1:7" ht="79.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -679,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57">
+    <row r="4" spans="1:7" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -699,17 +711,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="95">
+    <row r="7" spans="1:7" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38">
+    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -723,7 +735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38">
+    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -743,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76">
+    <row r="10" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -760,7 +772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38">
+    <row r="13" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -775,6 +787,23 @@
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA794A-3359-B141-BF02-40AAE9B8F5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="458" windowWidth="27900" windowHeight="15938"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,22 +203,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/16(一)</t>
+  </si>
+  <si>
+    <t>1.報告word編寫
+2. 完善code與把之前寫的定義函數（剛學定義函數😅）</t>
+  </si>
+  <si>
+    <t>將非線性處理成線性</t>
+  </si>
+  <si>
+    <t>處理資料</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -290,7 +304,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -317,7 +331,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -334,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,6 +423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -444,6 +475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,25 +667,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="54.6875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.8125" style="2"/>
+    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="76">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -674,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="79" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -691,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="57">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -711,17 +760,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="95">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="38">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -735,7 +784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="38">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -755,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="95">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -772,8 +821,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="38">
+      <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -789,21 +838,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA794A-3359-B141-BF02-40AAE9B8F5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA2E9B-6085-5A45-99BE-3AD342455163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   <si>
     <t>處理資料</t>
   </si>
+  <si>
+    <t>整理因變量所需投資組合中的個股數據，用vlookup函數統一日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等因變量數據完成後，完整跑一次跑回歸並完成書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -225,13 +233,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -304,7 +312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -348,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -668,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -804,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="95">
+    <row r="10" spans="1:7" ht="76">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -873,6 +881,23 @@
       </c>
       <c r="F17" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA2E9B-6085-5A45-99BE-3AD342455163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFE154-193D-6043-B4EF-EDAEE207AD71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,13 @@
     <t>等因變量數據完成後，完整跑一次跑回歸並完成書面報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/25(三）</t>
+  </si>
+  <si>
+    <t>1.重寫PCA程式碼（之前弄到ICA去了）
+2.錄製影片</t>
+  </si>
 </sst>
 </file>
 
@@ -233,13 +240,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -312,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -356,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -812,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76">
+    <row r="10" spans="1:7" ht="95">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -898,6 +905,17 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="38">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFE154-193D-6043-B4EF-EDAEE207AD71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA2E9B-6085-5A45-99BE-3AD342455163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,13 +224,6 @@
     <t>等因變量數據完成後，完整跑一次跑回歸並完成書面報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>12/25(三）</t>
-  </si>
-  <si>
-    <t>1.重寫PCA程式碼（之前弄到ICA去了）
-2.錄製影片</t>
-  </si>
 </sst>
 </file>
 
@@ -240,13 +233,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -319,7 +312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -363,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -819,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="95">
+    <row r="10" spans="1:7" ht="76">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -905,17 +898,6 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="38">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA2E9B-6085-5A45-99BE-3AD342455163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1762C4-A844-E847-9C3E-00FDCB34A00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>等因變量數據完成後，完整跑一次跑回歸並完成書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/25(三)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 完成回歸部分的代碼，並與數據處理部分的代碼整合，放在GitHub【投資組合的報酬與風險歸因分析.py】文檔中
+2. 完成回歸部分的書面報告，與前面部分進行整合，放在GitHub【壽險實務書面報告.docx】文檔中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -900,6 +909,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="20" spans="1:6" ht="76">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA2E9B-6085-5A45-99BE-3AD342455163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="458" windowWidth="27900" windowHeight="15938"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,12 +223,36 @@
     <t>等因變量數據完成後，完整跑一次跑回歸並完成書面報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/24（三）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢云帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初步word和code編寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四部分解釋力分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成解釋力分析部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統整資料和code，檢查整份報告且上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,7 +335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -339,7 +362,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -356,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,23 +454,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -483,23 +489,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,26 +664,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.6875" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -714,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="76">
+    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -731,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79" customHeight="1">
+    <row r="3" spans="1:7" ht="79.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -748,7 +737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57">
+    <row r="4" spans="1:7" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -768,17 +757,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="95">
+    <row r="7" spans="1:7" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38">
+    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -792,7 +781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38">
+    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -812,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76">
+    <row r="10" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -829,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38">
+    <row r="13" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -846,13 +835,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -862,11 +851,14 @@
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38">
+    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -883,7 +875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -898,6 +890,23 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68F4135-C5B6-6D44-8ECE-6FE681AEA4F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="458" windowWidth="27900" windowHeight="15938"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,22 +248,52 @@
     <t>統整資料和code，檢查整份報告且上交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>黃容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責第一部分整理數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 將數據遺漏值填補、計算投資報酬，以及將投資報酬標準化。</t>
+  </si>
+  <si>
+    <t>上傳DB以及mysql語法教學</t>
+  </si>
+  <si>
+    <t>mySQL, DB使用方法整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/23(二)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書面報告完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書面報告完成、整理教學。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -287,6 +318,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,6 +371,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -362,7 +401,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -454,6 +493,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -489,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,26 +737,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="54.6875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.8125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.3125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.1875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.8125" style="2"/>
+    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="76">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -720,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="79" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -737,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="57">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -757,17 +830,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="95">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="38">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -781,7 +854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="38">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -801,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="76">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -818,7 +891,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -835,13 +922,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -858,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="38">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -875,7 +973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -892,7 +990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -907,6 +1005,20 @@
       </c>
       <c r="F19" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68F4135-C5B6-6D44-8ECE-6FE681AEA4F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C22959-D548-6842-957F-4DFAD30A99EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
     <t>書面報告完成、整理教學。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.重寫PCA 程式碼，之前弄到ICA去了
+2.錄製報告影片</t>
+  </si>
 </sst>
 </file>
 
@@ -287,13 +291,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -374,7 +378,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -418,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -738,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -874,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76">
+    <row r="10" spans="1:7" ht="95">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -922,7 +926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -990,35 +994,46 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C22959-D548-6842-957F-4DFAD30A99EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D4873-923D-464F-930A-30A2467609A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,15 @@
     <t>1.重寫PCA 程式碼，之前弄到ICA去了
 2.錄製報告影片</t>
   </si>
+  <si>
+    <t>12/25(三)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 完成回歸部分的代碼，並與數據處理部分的代碼整合，放在GitHub【投資組合的報酬與風險歸因分析.py】文檔中
+2. 完成回歸部分的書面報告，與前面部分進行整合，放在GitHub【壽險實務書面報告.docx】文檔中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -291,13 +300,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -378,7 +387,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -878,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="95">
+    <row r="10" spans="1:7" ht="76">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1034,6 +1043,20 @@
       </c>
       <c r="E22" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="76">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
